--- a/doc/UAT_Script_-_Team_Eclipse.xlsx
+++ b/doc/UAT_Script_-_Team_Eclipse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/960d3d86b88aa799/Documents/software programming/4121COMP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukaginley/Desktop/University/Software Engineering/Semester 2/Software Engineering Workshop (4121COMP)/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39141098-0FD7-4FDD-AAA9-A0D2B09CC5C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E5AD5D-2767-EB4F-87FA-F9C35B4B7EB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16300" windowHeight="16260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mon-Fri (Liv-BPN) Script " sheetId="8" r:id="rId1"/>
@@ -18,9 +18,11 @@
     <sheet name="Saturday Script" sheetId="3" r:id="rId3"/>
     <sheet name="Sunday (Liv-BPN) Script" sheetId="9" r:id="rId4"/>
     <sheet name="Sunday (BPN-Liv) Script" sheetId="4" r:id="rId5"/>
-    <sheet name="Filter Station (Monday-Friday)" sheetId="6" r:id="rId6"/>
-    <sheet name="Page Turning Script" sheetId="12" r:id="rId7"/>
-    <sheet name="Station Facilities " sheetId="2" r:id="rId8"/>
+    <sheet name="Filter Station Origin only" sheetId="6" r:id="rId6"/>
+    <sheet name="Filter Station Destination only" sheetId="13" r:id="rId7"/>
+    <sheet name="Filter Station O &amp; D" sheetId="14" r:id="rId8"/>
+    <sheet name=" Filter Station Facilities " sheetId="2" r:id="rId9"/>
+    <sheet name="Page Turning Script" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="49">
   <si>
     <t>Step ID</t>
   </si>
@@ -66,9 +68,6 @@
 EXPECTED RESULT: Page counter should increment by one and display new data</t>
   </si>
   <si>
-    <t>Page Turning</t>
-  </si>
-  <si>
     <t>Select option '1' - Previous Page
 EXPECTED RESULT: Page counter should decrement by one and display new data</t>
   </si>
@@ -141,48 +140,72 @@
 Expected result: Program should display Sunday (Liverpool-Blackpool) timetable in correct format</t>
   </si>
   <si>
-    <t>Select option '1' - "From Blackpool"
+    <t>Display Sunday Timetable (Blackpool - Liverpool)</t>
+  </si>
+  <si>
+    <t>Select option '1'  at Select Timetable Menu - "Monday-Friday"</t>
+  </si>
+  <si>
+    <t>Selelct option '1' - "From Liverpool"</t>
+  </si>
+  <si>
+    <t>Select option '4' at Filter Timetable Menu - "Filter by Station Facilities"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select option '2' - "From Blackpool"
+Expected result: Program should display Monday-Friday (Blackpool - Liverpool) timetable in correct format </t>
+  </si>
+  <si>
+    <t>Select option '2' - "From Blackpool"
 Expected result: Program should display Sunday (Blackpool - Liverpool) timetable in correct format</t>
   </si>
   <si>
-    <t>Display Sunday Timetable (Blackpool - Liverpool)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select option '1' - "From Blackpool"
-Expected result: Program should display Monday-Friday (Blackpool - Liverpool) timetable in correct format </t>
-  </si>
-  <si>
-    <t>Filter Timetable (Monday-Friday)</t>
-  </si>
-  <si>
-    <t>Select option '1'  at Select Timetable Menu - "Monday-Friday"</t>
-  </si>
-  <si>
-    <t>Selelct option '1' - "From Liverpool"</t>
-  </si>
-  <si>
-    <t>Station Facilities (Monday-Friday)</t>
-  </si>
-  <si>
-    <t>Select option '4' at Filter Timetable Menu - "Filter by Station Facilities"</t>
-  </si>
-  <si>
-    <t>Select option '4' at Filter Stations Menu - "Search Facilities"</t>
-  </si>
-  <si>
-    <t>User input 'Y' - "Do you want Car Parking? (Y/N)"
+    <t>Filter Timetable: Origin only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select option '1' - "Origin only" 
+Expected Result: Program should prompt user to enter a  origin station name/code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Expected Result: Program should display timetable based on user input </t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Filter Timetable: Destination only</t>
+  </si>
+  <si>
+    <t>Filter Timetable: Origin &amp; Destination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select option '2' - "Destination only" 
+Expected Result: Program should prompt user to enter a station name/code </t>
+  </si>
+  <si>
+    <t>Enter user information - "Enter destination station name/code: "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User input 'Y' - "Would you be in need of disability assistance? (Y/N)"
+EXPECTED RESULT: Program should display timetable based on the user input that has been collected </t>
+  </si>
+  <si>
+    <t>User input 'Y' - "Would you like Car Parking? (Y/N)"
 EXPECTED RESULT: Console will prompt the user to specify what facilities they need in a station</t>
   </si>
   <si>
-    <t xml:space="preserve">User input 'N' - "Do you want Bicycle racks/Storage? (Y/N)"
+    <t xml:space="preserve">User input 'N' - "Would you like bike racks, including storage? (Y/N)"
 EXPECTED RESULT: Console will prompt the user to specify what facilities they need in a station </t>
   </si>
   <si>
-    <t xml:space="preserve">Comment: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">User input 'Y' - "Do you want Step-free access/Disability Access? (Y/N)"
-EXPECTED RESULT: Program should display timetable based on the user input that has been collected </t>
+    <t>Comment: Program worked as intended</t>
+  </si>
+  <si>
+    <t>Page Turning Script</t>
+  </si>
+  <si>
+    <t>Filter Station: Facilities</t>
   </si>
 </sst>
 </file>
@@ -777,22 +800,22 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
     <col min="2" max="2" width="67.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.77734375" style="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="40"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -803,7 +826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -811,67 +834,67 @@
         <v>3</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="46" x14ac:dyDescent="0.2">
       <c r="A6" s="30">
         <v>4</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -882,28 +905,177 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DE67C2-AD65-114B-B123-8F7E608A9282}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="46" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="46" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="21"/>
+      <c r="B12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="67.6640625" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="40"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -914,7 +1086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -922,67 +1094,67 @@
         <v>3</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="46" x14ac:dyDescent="0.2">
       <c r="A6" s="30">
         <v>4</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1001,20 +1173,20 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="67.6640625" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="40"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1025,7 +1197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -1033,57 +1205,57 @@
         <v>3</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="31" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1099,25 +1271,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CD54FC-9F34-564F-ABC7-57D5622CE20B}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="1"/>
-    <col min="2" max="2" width="53.77734375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.77734375" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="43"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -1136,68 +1308,68 @@
         <v>3</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>2</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>3</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="46" x14ac:dyDescent="0.2">
       <c r="A6" s="25">
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>5</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>6</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="19"/>
     </row>
@@ -1214,22 +1386,22 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="53.77734375" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="43"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -1240,7 +1412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -1248,68 +1420,68 @@
         <v>3</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>2</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>3</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="46" x14ac:dyDescent="0.2">
       <c r="A6" s="25">
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>5</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>6</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="19"/>
     </row>
@@ -1326,22 +1498,22 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="51.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="43"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -1352,7 +1524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -1360,101 +1532,101 @@
         <v>3</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>2</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="34">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="33">
         <v>4</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="46" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>5</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>6</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="55.8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>7</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="28">
         <v>8</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="25">
         <v>9</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
       <c r="B12" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="21"/>
     </row>
@@ -1467,142 +1639,141 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DE67C2-AD65-114B-B123-8F7E608A9282}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D7BFA6-1425-FC41-B9BA-0728F4443D54}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="51.33203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="34">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="33">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="46" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
+        <v>5</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="16">
+        <v>6</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="B9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="28">
+        <v>8</v>
+      </c>
+      <c r="B10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C10" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="25">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>6</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>8</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="B11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="21"/>
+      <c r="B12" s="27" t="s">
         <v>12</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>9</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="23" t="s">
-        <v>13</v>
       </c>
       <c r="C12" s="21"/>
     </row>
@@ -1611,33 +1782,179 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C88566-91F4-6249-97DA-2A31FD929D83}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="51.33203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="34">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="33">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="46" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
+        <v>5</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="16">
+        <v>6</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="46" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="28">
+        <v>8</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="25">
+        <v>9</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="21"/>
+      <c r="B12" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.1640625" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
@@ -1648,109 +1965,122 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="35"/>
-    </row>
-    <row r="9" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="46" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>7</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:3" ht="55.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>8</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="35"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+        <v>45</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="46" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="21"/>
+      <c r="B12" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="21"/>
+      <c r="B13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/UAT_Script_-_Team_Eclipse.xlsx
+++ b/doc/UAT_Script_-_Team_Eclipse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukaginley/Desktop/University/Software Engineering/Semester 2/Software Engineering Workshop (4121COMP)/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E5AD5D-2767-EB4F-87FA-F9C35B4B7EB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03521B40-13B2-FA4D-A786-57924C8333BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16300" windowHeight="16260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16300" windowHeight="16260" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mon-Fri (Liv-BPN) Script " sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="48">
   <si>
     <t>Step ID</t>
   </si>
@@ -171,9 +171,6 @@
 Expected Result: Program should display timetable based on user input </t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Filter Timetable: Destination only</t>
   </si>
   <si>
@@ -184,9 +181,6 @@
 Expected Result: Program should prompt user to enter a station name/code </t>
   </si>
   <si>
-    <t>Enter user information - "Enter destination station name/code: "</t>
-  </si>
-  <si>
     <t xml:space="preserve">User input 'Y' - "Would you be in need of disability assistance? (Y/N)"
 EXPECTED RESULT: Program should display timetable based on the user input that has been collected </t>
   </si>
@@ -206,6 +200,9 @@
   </si>
   <si>
     <t>Filter Station: Facilities</t>
+  </si>
+  <si>
+    <t>Enter user information - "Enter station code: "</t>
   </si>
 </sst>
 </file>
@@ -923,7 +920,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -1271,7 +1268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CD54FC-9F34-564F-ABC7-57D5622CE20B}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -1498,7 +1495,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1584,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>8</v>
@@ -1598,7 +1595,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1643,7 +1640,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1655,7 +1652,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="43"/>
@@ -1720,7 +1717,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>8</v>
@@ -1731,10 +1728,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -1745,7 +1742,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1802,7 +1799,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="43"/>
@@ -1936,7 +1933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -1949,7 +1946,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -2025,7 +2022,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>8</v>
@@ -2036,7 +2033,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>8</v>
@@ -2047,7 +2044,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="35" t="s">
         <v>8</v>
@@ -2078,7 +2075,7 @@
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="21"/>
       <c r="B13" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="21"/>
     </row>
